--- a/mbs-perturbation/chatty/decisionTree/smote/chatty-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/chatty/decisionTree/smote/chatty-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.890625</v>
+        <v>0.7756653992395437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9363449691991788</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9350837568228872</v>
+        <v>0.840649386845039</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7796610169491525</v>
+        <v>0.9715639810426541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9133069828722002</v>
+        <v>0.9726170568561872</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9426229508196722</v>
+        <v>0.9671361502347418</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9704641350210971</v>
+        <v>0.9786223277909739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9985444234404537</v>
+        <v>0.980606651802304</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.990990990990991</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9734513274336283</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9973913043478262</v>
+        <v>0.9974684132292828</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9955947136563876</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9826086956521739</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9890590809628009</v>
+        <v>0.9975903614457832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994896030245747</v>
+        <v>0.9974678522252561</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8917445088711879</v>
+        <v>0.9373349073903847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9852286843591191</v>
+        <v>0.9922844667409885</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9297961059131715</v>
+        <v>0.9622108168709396</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9687632141015884</v>
+        <v>0.9577618721916139</v>
       </c>
     </row>
   </sheetData>
